--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_100ha_100ha_18%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_100ha_100ha_18%_6m_0_LM/Planilha_Unificada.xlsx
@@ -1602,28 +1602,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>313.1633506746127</v>
+        <v>391.3700356109142</v>
       </c>
       <c r="AB2" t="n">
-        <v>428.4839121849682</v>
+        <v>535.4897487502501</v>
       </c>
       <c r="AC2" t="n">
-        <v>387.5900089869819</v>
+        <v>484.383358694108</v>
       </c>
       <c r="AD2" t="n">
-        <v>313163.3506746127</v>
+        <v>391370.0356109142</v>
       </c>
       <c r="AE2" t="n">
-        <v>428483.9121849682</v>
+        <v>535489.7487502501</v>
       </c>
       <c r="AF2" t="n">
         <v>1.024996323372024e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.3125</v>
       </c>
       <c r="AH2" t="n">
-        <v>387590.0089869819</v>
+        <v>484383.358694108</v>
       </c>
     </row>
     <row r="3">
@@ -1708,28 +1708,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>202.4253708302122</v>
+        <v>261.0550132258196</v>
       </c>
       <c r="AB3" t="n">
-        <v>276.9673227468553</v>
+        <v>357.1869860299265</v>
       </c>
       <c r="AC3" t="n">
-        <v>250.5339501900556</v>
+        <v>323.097561398313</v>
       </c>
       <c r="AD3" t="n">
-        <v>202425.3708302122</v>
+        <v>261055.0132258196</v>
       </c>
       <c r="AE3" t="n">
-        <v>276967.3227468553</v>
+        <v>357186.9860299265</v>
       </c>
       <c r="AF3" t="n">
         <v>1.376330001226232e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.40416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>250533.9501900556</v>
+        <v>323097.561398313</v>
       </c>
     </row>
   </sheetData>
@@ -2005,28 +2005,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>216.7201952570306</v>
+        <v>274.7361703499776</v>
       </c>
       <c r="AB2" t="n">
-        <v>296.5261321707636</v>
+        <v>375.9061487772539</v>
       </c>
       <c r="AC2" t="n">
-        <v>268.2260942935137</v>
+        <v>340.0301935255454</v>
       </c>
       <c r="AD2" t="n">
-        <v>216720.1952570306</v>
+        <v>274736.1703499776</v>
       </c>
       <c r="AE2" t="n">
-        <v>296526.1321707636</v>
+        <v>375906.1487772539</v>
       </c>
       <c r="AF2" t="n">
         <v>1.394427299288822e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.31666666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>268226.0942935137</v>
+        <v>340030.1935255454</v>
       </c>
     </row>
     <row r="3">
@@ -2111,28 +2111,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>201.9568781702463</v>
+        <v>269.652391383444</v>
       </c>
       <c r="AB3" t="n">
-        <v>276.3263104210528</v>
+        <v>368.9502981147436</v>
       </c>
       <c r="AC3" t="n">
-        <v>249.9541151809611</v>
+        <v>333.7381994876674</v>
       </c>
       <c r="AD3" t="n">
-        <v>201956.8781702463</v>
+        <v>269652.391383444</v>
       </c>
       <c r="AE3" t="n">
-        <v>276326.3104210528</v>
+        <v>368950.2981147437</v>
       </c>
       <c r="AF3" t="n">
         <v>1.434242171927537e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.975</v>
       </c>
       <c r="AH3" t="n">
-        <v>249954.1151809611</v>
+        <v>333738.1994876674</v>
       </c>
     </row>
   </sheetData>
@@ -2408,28 +2408,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>261.8750156987299</v>
+        <v>346.006020518707</v>
       </c>
       <c r="AB2" t="n">
-        <v>358.3089495893184</v>
+        <v>473.4207019819922</v>
       </c>
       <c r="AC2" t="n">
-        <v>324.1124463302822</v>
+        <v>428.2380946349585</v>
       </c>
       <c r="AD2" t="n">
-        <v>261875.0156987299</v>
+        <v>346006.020518707</v>
       </c>
       <c r="AE2" t="n">
-        <v>358308.9495893184</v>
+        <v>473420.7019819922</v>
       </c>
       <c r="AF2" t="n">
         <v>1.499145954104277e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.9875</v>
       </c>
       <c r="AH2" t="n">
-        <v>324112.4463302823</v>
+        <v>428238.0946349585</v>
       </c>
     </row>
   </sheetData>
@@ -2705,28 +2705,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>228.0310165695569</v>
+        <v>294.4090074689119</v>
       </c>
       <c r="AB2" t="n">
-        <v>312.0020968887732</v>
+        <v>402.8233924277001</v>
       </c>
       <c r="AC2" t="n">
-        <v>282.2250546594942</v>
+        <v>364.3784932205817</v>
       </c>
       <c r="AD2" t="n">
-        <v>228031.0165695569</v>
+        <v>294409.0074689119</v>
       </c>
       <c r="AE2" t="n">
-        <v>312002.0968887731</v>
+        <v>402823.3924277</v>
       </c>
       <c r="AF2" t="n">
         <v>1.504514015511184e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.79583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>282225.0546594942</v>
+        <v>364378.4932205817</v>
       </c>
     </row>
   </sheetData>
@@ -3002,28 +3002,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>313.7063187795828</v>
+        <v>406.1845852725738</v>
       </c>
       <c r="AB2" t="n">
-        <v>429.2268251002507</v>
+        <v>555.7596691691368</v>
       </c>
       <c r="AC2" t="n">
-        <v>388.2620193363146</v>
+        <v>502.7187463572283</v>
       </c>
       <c r="AD2" t="n">
-        <v>313706.3187795829</v>
+        <v>406184.5852725738</v>
       </c>
       <c r="AE2" t="n">
-        <v>429226.8251002507</v>
+        <v>555759.6691691368</v>
       </c>
       <c r="AF2" t="n">
         <v>1.449481724070123e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.94166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>388262.0193363146</v>
+        <v>502718.7463572283</v>
       </c>
     </row>
   </sheetData>
@@ -3299,28 +3299,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>225.4945770138429</v>
+        <v>293.4229124868523</v>
       </c>
       <c r="AB2" t="n">
-        <v>308.5316283888312</v>
+        <v>401.4741737698056</v>
       </c>
       <c r="AC2" t="n">
-        <v>279.0858028023525</v>
+        <v>363.1580420977564</v>
       </c>
       <c r="AD2" t="n">
-        <v>225494.5770138429</v>
+        <v>293422.9124868523</v>
       </c>
       <c r="AE2" t="n">
-        <v>308531.6283888312</v>
+        <v>401474.1737698056</v>
       </c>
       <c r="AF2" t="n">
         <v>1.3218884370364e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.67916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>279085.8028023525</v>
+        <v>363158.0420977564</v>
       </c>
     </row>
     <row r="3">
@@ -3405,28 +3405,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>201.7675504019958</v>
+        <v>260.0211225949589</v>
       </c>
       <c r="AB3" t="n">
-        <v>276.067263815981</v>
+        <v>355.7723712567474</v>
       </c>
       <c r="AC3" t="n">
-        <v>249.719791620303</v>
+        <v>321.8179554736618</v>
       </c>
       <c r="AD3" t="n">
-        <v>201767.5504019958</v>
+        <v>260021.1225949589</v>
       </c>
       <c r="AE3" t="n">
-        <v>276067.263815981</v>
+        <v>355772.3712567474</v>
       </c>
       <c r="AF3" t="n">
         <v>1.420750537025308e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.79583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>249719.791620303</v>
+        <v>321817.9554736618</v>
       </c>
     </row>
   </sheetData>
@@ -3702,28 +3702,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>364.4224464743782</v>
+        <v>465.5071484687917</v>
       </c>
       <c r="AB2" t="n">
-        <v>498.6188684499131</v>
+        <v>636.9274172609828</v>
       </c>
       <c r="AC2" t="n">
-        <v>451.0313834610297</v>
+        <v>576.1399584908385</v>
       </c>
       <c r="AD2" t="n">
-        <v>364422.4464743782</v>
+        <v>465507.1484687917</v>
       </c>
       <c r="AE2" t="n">
-        <v>498618.8684499131</v>
+        <v>636927.4172609828</v>
       </c>
       <c r="AF2" t="n">
         <v>1.395085788553136e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.53333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>451031.3834610297</v>
+        <v>576139.9584908384</v>
       </c>
     </row>
   </sheetData>
@@ -3999,28 +3999,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>213.434284005903</v>
+        <v>280.5192250722761</v>
       </c>
       <c r="AB2" t="n">
-        <v>292.0302034327996</v>
+        <v>383.8187793786709</v>
       </c>
       <c r="AC2" t="n">
-        <v>264.1592506842239</v>
+        <v>347.18765376781</v>
       </c>
       <c r="AD2" t="n">
-        <v>213434.2840059029</v>
+        <v>280519.2250722761</v>
       </c>
       <c r="AE2" t="n">
-        <v>292030.2034327995</v>
+        <v>383818.7793786709</v>
       </c>
       <c r="AF2" t="n">
         <v>1.471789569700942e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.6875</v>
       </c>
       <c r="AH2" t="n">
-        <v>264159.250684224</v>
+        <v>347187.65376781</v>
       </c>
     </row>
     <row r="3">
@@ -4105,28 +4105,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>213.953613100435</v>
+        <v>281.0385541668081</v>
       </c>
       <c r="AB3" t="n">
-        <v>292.7407724111206</v>
+        <v>384.5293483569923</v>
       </c>
       <c r="AC3" t="n">
-        <v>264.8020039565441</v>
+        <v>347.8304070401302</v>
       </c>
       <c r="AD3" t="n">
-        <v>213953.613100435</v>
+        <v>281038.5541668081</v>
       </c>
       <c r="AE3" t="n">
-        <v>292740.7724111206</v>
+        <v>384529.3483569924</v>
       </c>
       <c r="AF3" t="n">
         <v>1.471520667830716e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.69166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>264802.0039565441</v>
+        <v>347830.4070401302</v>
       </c>
     </row>
   </sheetData>
@@ -4402,28 +4402,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>212.9234273103748</v>
+        <v>270.7626501032526</v>
       </c>
       <c r="AB2" t="n">
-        <v>291.3312267645715</v>
+        <v>370.4694030763436</v>
       </c>
       <c r="AC2" t="n">
-        <v>263.5269833681914</v>
+        <v>335.1123232038095</v>
       </c>
       <c r="AD2" t="n">
-        <v>212923.4273103748</v>
+        <v>270762.6501032526</v>
       </c>
       <c r="AE2" t="n">
-        <v>291331.2267645715</v>
+        <v>370469.4030763436</v>
       </c>
       <c r="AF2" t="n">
         <v>1.438480908761198e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.25416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>263526.9833681914</v>
+        <v>335112.3232038094</v>
       </c>
     </row>
     <row r="3">
@@ -4508,28 +4508,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>212.0504278172342</v>
+        <v>269.8896506101121</v>
       </c>
       <c r="AB3" t="n">
-        <v>290.1367503440378</v>
+        <v>369.2749266558093</v>
       </c>
       <c r="AC3" t="n">
-        <v>262.4465061007749</v>
+        <v>334.0318459363928</v>
       </c>
       <c r="AD3" t="n">
-        <v>212050.4278172342</v>
+        <v>269889.6506101121</v>
       </c>
       <c r="AE3" t="n">
-        <v>290136.7503440378</v>
+        <v>369274.9266558093</v>
       </c>
       <c r="AF3" t="n">
         <v>1.44829527091955e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.17083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>262446.5061007749</v>
+        <v>334031.8459363928</v>
       </c>
     </row>
   </sheetData>
@@ -4805,28 +4805,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>277.2746916243919</v>
+        <v>345.5472166540859</v>
       </c>
       <c r="AB2" t="n">
-        <v>379.3794655765623</v>
+        <v>472.7929462934195</v>
       </c>
       <c r="AC2" t="n">
-        <v>343.1720218443585</v>
+        <v>427.6702510682426</v>
       </c>
       <c r="AD2" t="n">
-        <v>277274.6916243919</v>
+        <v>345547.2166540859</v>
       </c>
       <c r="AE2" t="n">
-        <v>379379.4655765623</v>
+        <v>472792.9462934195</v>
       </c>
       <c r="AF2" t="n">
         <v>1.131489015174951e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.1625</v>
       </c>
       <c r="AH2" t="n">
-        <v>343172.0218443585</v>
+        <v>427670.2510682426</v>
       </c>
     </row>
     <row r="3">
@@ -4911,28 +4911,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>202.3322826462295</v>
+        <v>260.9092925068592</v>
       </c>
       <c r="AB3" t="n">
-        <v>276.8399553867694</v>
+        <v>356.9876045135005</v>
       </c>
       <c r="AC3" t="n">
-        <v>250.418738592055</v>
+        <v>322.9172085739809</v>
       </c>
       <c r="AD3" t="n">
-        <v>202332.2826462295</v>
+        <v>260909.2925068592</v>
       </c>
       <c r="AE3" t="n">
-        <v>276839.9553867694</v>
+        <v>356987.6045135005</v>
       </c>
       <c r="AF3" t="n">
         <v>1.389297612453708e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.53333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>250418.738592055</v>
+        <v>322917.208573981</v>
       </c>
     </row>
   </sheetData>
@@ -5208,28 +5208,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>225.6322316861585</v>
+        <v>292.1689403841185</v>
       </c>
       <c r="AB2" t="n">
-        <v>308.7199735843888</v>
+        <v>399.7584338175005</v>
       </c>
       <c r="AC2" t="n">
-        <v>279.2561725967903</v>
+        <v>361.6060499584432</v>
       </c>
       <c r="AD2" t="n">
-        <v>225632.2316861585</v>
+        <v>292168.9403841185</v>
       </c>
       <c r="AE2" t="n">
-        <v>308719.9735843887</v>
+        <v>399758.4338175005</v>
       </c>
       <c r="AF2" t="n">
         <v>1.496526607234001e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.34583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>279256.1725967903</v>
+        <v>361606.0499584432</v>
       </c>
     </row>
   </sheetData>
@@ -5505,28 +5505,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>255.3428314196433</v>
+        <v>321.1162106112506</v>
       </c>
       <c r="AB2" t="n">
-        <v>349.3713268788753</v>
+        <v>439.3653660056945</v>
       </c>
       <c r="AC2" t="n">
-        <v>316.0278177873967</v>
+        <v>397.4329521272743</v>
       </c>
       <c r="AD2" t="n">
-        <v>255342.8314196433</v>
+        <v>321116.2106112506</v>
       </c>
       <c r="AE2" t="n">
-        <v>349371.3268788753</v>
+        <v>439365.3660056944</v>
       </c>
       <c r="AF2" t="n">
         <v>1.506445913957453e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.07916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>316027.8177873967</v>
+        <v>397432.9521272744</v>
       </c>
     </row>
   </sheetData>
@@ -8815,28 +8815,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>290.1123314461156</v>
+        <v>373.7645529785011</v>
       </c>
       <c r="AB2" t="n">
-        <v>396.9444907373422</v>
+        <v>511.4011507135051</v>
       </c>
       <c r="AC2" t="n">
-        <v>359.0606656564612</v>
+        <v>462.5937426454305</v>
       </c>
       <c r="AD2" t="n">
-        <v>290112.3314461156</v>
+        <v>373764.5529785011</v>
       </c>
       <c r="AE2" t="n">
-        <v>396944.4907373422</v>
+        <v>511401.1507135051</v>
       </c>
       <c r="AF2" t="n">
         <v>1.481575119412361e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.21666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>359060.6656564612</v>
+        <v>462593.7426454305</v>
       </c>
     </row>
   </sheetData>
@@ -9112,28 +9112,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>452.8160502548473</v>
+        <v>571.2790313255991</v>
       </c>
       <c r="AB2" t="n">
-        <v>619.5628967929262</v>
+        <v>781.6491737118056</v>
       </c>
       <c r="AC2" t="n">
-        <v>560.4326834849956</v>
+        <v>707.0496736242557</v>
       </c>
       <c r="AD2" t="n">
-        <v>452816.0502548473</v>
+        <v>571279.0313255992</v>
       </c>
       <c r="AE2" t="n">
-        <v>619562.8967929261</v>
+        <v>781649.1737118056</v>
       </c>
       <c r="AF2" t="n">
         <v>1.293796082157343e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.075</v>
       </c>
       <c r="AH2" t="n">
-        <v>560432.6834849955</v>
+        <v>707049.6736242557</v>
       </c>
     </row>
   </sheetData>
@@ -9409,28 +9409,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>212.4353459962384</v>
+        <v>270.0906373418397</v>
       </c>
       <c r="AB2" t="n">
-        <v>290.6634123779426</v>
+        <v>369.5499255690679</v>
       </c>
       <c r="AC2" t="n">
-        <v>262.9229042493388</v>
+        <v>334.2805993393334</v>
       </c>
       <c r="AD2" t="n">
-        <v>212435.3459962384</v>
+        <v>270090.6373418397</v>
       </c>
       <c r="AE2" t="n">
-        <v>290663.4123779426</v>
+        <v>369549.9255690679</v>
       </c>
       <c r="AF2" t="n">
         <v>1.459893159451332e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.41666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>262922.9042493388</v>
+        <v>334280.5993393334</v>
       </c>
     </row>
     <row r="3">
@@ -9515,28 +9515,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>212.2674110266311</v>
+        <v>269.9227023722324</v>
       </c>
       <c r="AB3" t="n">
-        <v>290.433636343758</v>
+        <v>369.3201495348831</v>
       </c>
       <c r="AC3" t="n">
-        <v>262.715057717364</v>
+        <v>334.0727528073585</v>
       </c>
       <c r="AD3" t="n">
-        <v>212267.4110266311</v>
+        <v>269922.7023722325</v>
       </c>
       <c r="AE3" t="n">
-        <v>290433.636343758</v>
+        <v>369320.1495348831</v>
       </c>
       <c r="AF3" t="n">
         <v>1.464677840425609e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.375</v>
       </c>
       <c r="AH3" t="n">
-        <v>262715.057717364</v>
+        <v>334072.7528073585</v>
       </c>
     </row>
   </sheetData>
@@ -9812,28 +9812,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>249.7374966602233</v>
+        <v>317.7903129844607</v>
       </c>
       <c r="AB2" t="n">
-        <v>341.701860571124</v>
+        <v>434.8147261444728</v>
       </c>
       <c r="AC2" t="n">
-        <v>309.0903145798912</v>
+        <v>393.3166189475445</v>
       </c>
       <c r="AD2" t="n">
-        <v>249737.4966602233</v>
+        <v>317790.3129844607</v>
       </c>
       <c r="AE2" t="n">
-        <v>341701.860571124</v>
+        <v>434814.7261444728</v>
       </c>
       <c r="AF2" t="n">
         <v>1.226240306561497e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.35416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>309090.3145798912</v>
+        <v>393316.6189475445</v>
       </c>
     </row>
     <row r="3">
@@ -9918,28 +9918,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>201.6870367165897</v>
+        <v>260.1050094743517</v>
       </c>
       <c r="AB3" t="n">
-        <v>275.9571014395952</v>
+        <v>355.8871489859605</v>
       </c>
       <c r="AC3" t="n">
-        <v>249.6201429865056</v>
+        <v>321.9217789774904</v>
       </c>
       <c r="AD3" t="n">
-        <v>201687.0367165896</v>
+        <v>260105.0094743517</v>
       </c>
       <c r="AE3" t="n">
-        <v>275957.1014395952</v>
+        <v>355887.1489859605</v>
       </c>
       <c r="AF3" t="n">
         <v>1.40715585292845e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.6375</v>
       </c>
       <c r="AH3" t="n">
-        <v>249620.1429865056</v>
+        <v>321921.7789774904</v>
       </c>
     </row>
   </sheetData>
@@ -10215,28 +10215,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>624.9711849711663</v>
+        <v>787.505233410435</v>
       </c>
       <c r="AB2" t="n">
-        <v>855.1131470603128</v>
+        <v>1077.499402631069</v>
       </c>
       <c r="AC2" t="n">
-        <v>773.5023484637154</v>
+        <v>974.6643719238688</v>
       </c>
       <c r="AD2" t="n">
-        <v>624971.1849711663</v>
+        <v>787505.233410435</v>
       </c>
       <c r="AE2" t="n">
-        <v>855113.1470603128</v>
+        <v>1077499.402631069</v>
       </c>
       <c r="AF2" t="n">
         <v>1.115468813748659e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>36</v>
+        <v>35.61666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>773502.3484637154</v>
+        <v>974664.3719238688</v>
       </c>
     </row>
   </sheetData>
@@ -10512,28 +10512,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>241.3948093708486</v>
+        <v>307.4292445867489</v>
       </c>
       <c r="AB2" t="n">
-        <v>330.2870277684199</v>
+        <v>420.6382552646462</v>
       </c>
       <c r="AC2" t="n">
-        <v>298.7648973990551</v>
+        <v>380.4931305516868</v>
       </c>
       <c r="AD2" t="n">
-        <v>241394.8093708486</v>
+        <v>307429.2445867489</v>
       </c>
       <c r="AE2" t="n">
-        <v>330287.0277684199</v>
+        <v>420638.2552646462</v>
       </c>
       <c r="AF2" t="n">
         <v>1.50552971897566e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.3875</v>
       </c>
       <c r="AH2" t="n">
-        <v>298764.8973990551</v>
+        <v>380493.1305516867</v>
       </c>
     </row>
   </sheetData>
@@ -10809,28 +10809,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>214.261545328835</v>
+        <v>281.1120155539122</v>
       </c>
       <c r="AB2" t="n">
-        <v>293.1620988710285</v>
+        <v>384.6298614677158</v>
       </c>
       <c r="AC2" t="n">
-        <v>265.1831196104539</v>
+        <v>347.9213273206373</v>
       </c>
       <c r="AD2" t="n">
-        <v>214261.5453288351</v>
+        <v>281112.0155539122</v>
       </c>
       <c r="AE2" t="n">
-        <v>293162.0988710285</v>
+        <v>384629.8614677158</v>
       </c>
       <c r="AF2" t="n">
         <v>1.486201681509274e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.975</v>
       </c>
       <c r="AH2" t="n">
-        <v>265183.1196104539</v>
+        <v>347921.3273206372</v>
       </c>
     </row>
   </sheetData>
